--- a/data/ss_interface.xlsx
+++ b/data/ss_interface.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>online_filter_id</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -487,6 +492,7 @@
           <t>STATIConlineCategoryOnline</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -499,11 +505,7 @@
           <t>https://selfserve.waketech.edu/Student/Courses</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>**** will require an additional button click function</t>
@@ -514,6 +516,7 @@
           <t>STATIClocationsONL</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -526,17 +529,14 @@
           <t>https://sscourses.pittcc.edu/Student/Courses</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>STATIClocationsWEB</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -549,11 +549,7 @@
           <t>https://n-selfserv01p.rccc.edu:8173/Student/courses</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>not successful</t>
@@ -564,6 +560,7 @@
           <t>STATIClocationsWEB</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -576,17 +573,14 @@
           <t>https://ss-prod.cvcc.edu:8173/Student/Courses</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">No online courses when filtering? </t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -599,17 +593,14 @@
           <t>https://selfservice.alamancecc.edu:8173/Student/courses</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>STATIClocationsONLIN</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -622,17 +613,14 @@
           <t>https://selfserv.waynecc.edu:8173/Student/Courses</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>STATIClocationsOC</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -645,17 +633,14 @@
           <t>https://ss.lenoircc.edu:8173/Student/Courses</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>No online courses when filtering</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -668,17 +653,14 @@
           <t>https://selfservice.edgecombe.edu:8173/Student/Courses</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>STATIClocationsOL</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -691,17 +673,14 @@
           <t>https://selfsvc.blueridge.edu/Student/courses</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>STATIClocationsI</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -714,17 +693,14 @@
           <t>https://selfserviceproduction.haywood.edu/Student/courses</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>STATIClocationsOL</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -737,17 +713,14 @@
           <t>https://sss.halifaxcc.edu/Student/Courses</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>STATIClocationsOL</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
